--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -1,128 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\gestor_w10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96966B4A-6ACD-4C30-8E4C-FD0DC3B634B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="1830" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>tipo_de_documento</t>
-  </si>
-  <si>
-    <t>nuip</t>
-  </si>
-  <si>
-    <t>nombres</t>
-  </si>
-  <si>
-    <t>apellidos</t>
-  </si>
-  <si>
-    <t>fecha_nacimiento</t>
-  </si>
-  <si>
-    <t>correo</t>
-  </si>
-  <si>
-    <t>usuario</t>
-  </si>
-  <si>
-    <t>contraseña</t>
-  </si>
-  <si>
-    <t>telefono</t>
-  </si>
-  <si>
-    <t>fecha_hora_registro</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Pérez</t>
-  </si>
-  <si>
-    <t>juan.perez@example.com</t>
-  </si>
-  <si>
-    <t>juanp</t>
-  </si>
-  <si>
-    <t>password1</t>
-  </si>
-  <si>
-    <t>ti</t>
-  </si>
-  <si>
-    <t>Ana</t>
-  </si>
-  <si>
-    <t>Gómez</t>
-  </si>
-  <si>
-    <t>ana.gomez@example.com</t>
-  </si>
-  <si>
-    <t>anag</t>
-  </si>
-  <si>
-    <t>password2</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -130,41 +71,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -430,120 +457,567 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col width="19.140625" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="11" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="8.85546875" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="9.28515625" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="17" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="16.28515625" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="13" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" style="5" min="8" max="8"/>
+    <col width="11" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
+    <col width="17.5703125" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
+    <col width="10.28515625" bestFit="1" customWidth="1" style="5" min="11" max="11"/>
+    <col width="14.5703125" bestFit="1" customWidth="1" style="5" min="12" max="12"/>
+    <col width="9.140625" customWidth="1" style="5" min="13" max="13"/>
+    <col width="9.140625" customWidth="1" style="5" min="14" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customFormat="1" customHeight="1" s="4">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>tipo_de_documento</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>nuip</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>nombres</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>apellidos</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>fecha_nacimiento</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>correo</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>contraseña</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>telefono</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>fecha_registro</t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="inlineStr">
+        <is>
+          <t>rol</t>
+        </is>
+      </c>
+      <c r="L1" s="7" t="inlineStr">
+        <is>
+          <t>estado_usuario</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>123</v>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>Pérez</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="n">
+        <v>33003</v>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>juan@mail.com</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>juan123</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="n">
+        <v>12345</v>
+      </c>
+      <c r="I2" s="8" t="n">
+        <v>321654</v>
+      </c>
+      <c r="J2" s="9" t="n">
+        <v>45619</v>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="n">
+        <v>456</v>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>Gómez</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>31093</v>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>maria@mail.com</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="inlineStr">
+        <is>
+          <t>maria123</t>
+        </is>
+      </c>
+      <c r="H3" s="8" t="n">
+        <v>67890</v>
+      </c>
+      <c r="I3" s="8" t="n">
+        <v>123456</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>45619</v>
+      </c>
+      <c r="K3" s="8" t="inlineStr">
+        <is>
+          <t>supervisor</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>789</v>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>Carlos</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>López</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>34936</v>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>carlos@mail.com</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>carlos123</t>
+        </is>
+      </c>
+      <c r="H4" s="8" t="n">
+        <v>112233</v>
+      </c>
+      <c r="I4" s="8" t="n">
+        <v>987654</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>45619</v>
+      </c>
+      <c r="K4" s="8" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>1119217998</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>jose</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>bohorquez</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>1998-04-17</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>jb@gmail.com</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>jose.bohorquez</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>3178773186</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>2024-11-23 01:42:53</t>
+        </is>
+      </c>
+      <c r="K5" s="8" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1212</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2023-10-22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>as@gmail.com</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2024-11-23 02:34:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2023-10-22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>as@gmail.com</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2024-11-23 02:37:58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>tipo_de_documento</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>nuip</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>nombres</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>apellidos</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>fecha_nacimiento</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>correo</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>contraseña</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>telefono</t>
+        </is>
+      </c>
+      <c r="J1" s="4" t="inlineStr">
+        <is>
+          <t>fecha_hora_registro</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" ht="45" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>12345678</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Pérez</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>32874</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>juan.perez@example.com</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>juanp</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>password1</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>3001234567</v>
       </c>
-      <c r="J2" s="3">
-        <v>45619.583333333336</v>
+      <c r="J2" s="3" t="n">
+        <v>45619.58333333334</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="3" ht="45" customHeight="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>87654321</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Gómez</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>36661</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>ana.gomez@example.com</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>anag</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>password2</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>3012345678</v>
       </c>
-      <c r="J3" s="3">
-        <v>45619.586805555555</v>
+      <c r="J3" s="3" t="n">
+        <v>45619.58680555555</v>
       </c>
     </row>
   </sheetData>
